--- a/medicine/Psychotrope/Pastis_Henri_Bardouin/Pastis_Henri_Bardouin.xlsx
+++ b/medicine/Psychotrope/Pastis_Henri_Bardouin/Pastis_Henri_Bardouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pastis Henri Bardouin est un pastis positionné « haut de gamme »[1] issu d'un assemblage de plus de 65 plantes et épices.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pastis Henri Bardouin est un pastis positionné « haut de gamme » issu d'un assemblage de plus de 65 plantes et épices.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fabriqué à Forcalquier dans l'arrière-pays provençal, par les Distilleries et Domaines de Provence[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fabriqué à Forcalquier dans l'arrière-pays provençal, par les Distilleries et Domaines de Provence.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est élaboré à base d'un assemblage de distillats et d'infusions provenant de plus de 65 herbes et épices différentes, dont l'armoise, l'anis étoilé, la centaurée, la graine de paradis, la cardamome, le poivre noir et blanc, la noix de muscade, le clou de girofle, l'angélique, la cannelle, la mélisse, la sauge, le romarin, la racine de réglisse, le thym, la verveine, la coriandre, la bourrache, la germandrée, le millepertuis, la vulnéraire, le serpolet, la camomille, le mélilot, l'origan, le tilleul et le fenouil[3]. Les autres ingrédients sont gardés secrets.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élaboré à base d'un assemblage de distillats et d'infusions provenant de plus de 65 herbes et épices différentes, dont l'armoise, l'anis étoilé, la centaurée, la graine de paradis, la cardamome, le poivre noir et blanc, la noix de muscade, le clou de girofle, l'angélique, la cannelle, la mélisse, la sauge, le romarin, la racine de réglisse, le thym, la verveine, la coriandre, la bourrache, la germandrée, le millepertuis, la vulnéraire, le serpolet, la camomille, le mélilot, l'origan, le tilleul et le fenouil. Les autres ingrédients sont gardés secrets.
 </t>
         </is>
       </c>
